--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H2">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N2">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O2">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P2">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q2">
-        <v>5.328628843266111</v>
+        <v>1.840432034282222</v>
       </c>
       <c r="R2">
-        <v>47.957659589395</v>
+        <v>16.56388830854</v>
       </c>
       <c r="S2">
-        <v>0.06776940459420808</v>
+        <v>0.01590112201578272</v>
       </c>
       <c r="T2">
-        <v>0.06776940459420808</v>
+        <v>0.01590112201578272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H3">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.523944</v>
       </c>
       <c r="O3">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P3">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q3">
-        <v>19.47594379777334</v>
+        <v>5.596907973493334</v>
       </c>
       <c r="R3">
-        <v>175.28349417996</v>
+        <v>50.37217176144</v>
       </c>
       <c r="S3">
-        <v>0.2476946985627095</v>
+        <v>0.04835664395090471</v>
       </c>
       <c r="T3">
-        <v>0.2476946985627095</v>
+        <v>0.04835664395090472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H4">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N4">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O4">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P4">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q4">
-        <v>25.15699113356056</v>
+        <v>26.89378618139555</v>
       </c>
       <c r="R4">
-        <v>226.412920202045</v>
+        <v>242.04407563256</v>
       </c>
       <c r="S4">
-        <v>0.3199461551272524</v>
+        <v>0.2323592328165078</v>
       </c>
       <c r="T4">
-        <v>0.3199461551272524</v>
+        <v>0.2323592328165078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N5">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O5">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P5">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q5">
-        <v>2.755597160265667</v>
+        <v>3.311847934690333</v>
       </c>
       <c r="R5">
-        <v>24.800374442391</v>
+        <v>29.806631412213</v>
       </c>
       <c r="S5">
-        <v>0.03504563450477288</v>
+        <v>0.02861398689344563</v>
       </c>
       <c r="T5">
-        <v>0.03504563450477288</v>
+        <v>0.02861398689344562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.523944</v>
       </c>
       <c r="O6">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P6">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q6">
         <v>10.071606974552</v>
@@ -818,10 +818,10 @@
         <v>90.644462770968</v>
       </c>
       <c r="S6">
-        <v>0.1280905140981643</v>
+        <v>0.08701753089177175</v>
       </c>
       <c r="T6">
-        <v>0.1280905140981643</v>
+        <v>0.08701753089177174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N7">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O7">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P7">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q7">
-        <v>13.00945052986233</v>
+        <v>48.39522925148134</v>
       </c>
       <c r="R7">
-        <v>117.085054768761</v>
+        <v>435.557063263332</v>
       </c>
       <c r="S7">
-        <v>0.1654539549364043</v>
+        <v>0.4181292386652602</v>
       </c>
       <c r="T7">
-        <v>0.1654539549364043</v>
+        <v>0.4181292386652601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H8">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N8">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O8">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P8">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q8">
-        <v>0.3018974085378889</v>
+        <v>1.052462314282222</v>
       </c>
       <c r="R8">
-        <v>2.717076676841</v>
+        <v>9.47216082854</v>
       </c>
       <c r="S8">
-        <v>0.003839525744226314</v>
+        <v>0.009093153870765751</v>
       </c>
       <c r="T8">
-        <v>0.003839525744226315</v>
+        <v>0.009093153870765749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H9">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.523944</v>
       </c>
       <c r="O9">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P9">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q9">
-        <v>1.103424001618667</v>
+        <v>3.200626053493334</v>
       </c>
       <c r="R9">
-        <v>9.930816014568002</v>
+        <v>28.80563448144</v>
       </c>
       <c r="S9">
-        <v>0.01403332635921047</v>
+        <v>0.0276530425766792</v>
       </c>
       <c r="T9">
-        <v>0.01403332635921048</v>
+        <v>0.0276530425766792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H10">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N10">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O10">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P10">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q10">
-        <v>1.425287940523444</v>
+        <v>15.37937610139556</v>
       </c>
       <c r="R10">
-        <v>12.827591464711</v>
+        <v>138.41438491256</v>
       </c>
       <c r="S10">
-        <v>0.01812678607305192</v>
+        <v>0.1328760483188823</v>
       </c>
       <c r="T10">
-        <v>0.01812678607305192</v>
+        <v>0.1328760483188823</v>
       </c>
     </row>
   </sheetData>
